--- a/Paper_resultados/Parametric_model/Survival_rate/Output/IC_model.xlsx
+++ b/Paper_resultados/Parametric_model/Survival_rate/Output/IC_model.xlsx
@@ -376,13 +376,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5667.161017241246</v>
+        <v>5667.161017241245</v>
       </c>
       <c r="B2">
-        <v>5677.163508485384</v>
+        <v>5677.163508485383</v>
       </c>
       <c r="C2">
-        <v>-2831.580508620623</v>
+        <v>-2831.580508620622</v>
       </c>
     </row>
     <row r="3">
@@ -398,13 +398,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>5533.535882662761</v>
+        <v>5532.87628622142</v>
       </c>
       <c r="B4">
-        <v>5548.53961952897</v>
+        <v>5547.880023087629</v>
       </c>
       <c r="C4">
-        <v>-2763.76794133138</v>
+        <v>-2763.43814311071</v>
       </c>
     </row>
     <row r="5">
